--- a/File1.xlsx
+++ b/File1.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>2nd commit change</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +384,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/File1.xlsx
+++ b/File1.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Test</t>
   </si>
   <si>
     <t>2nd commit change</t>
+  </si>
+  <si>
+    <t>3rd commit</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +392,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
